--- a/StateMachineJikken/状態遷移図実験.xlsx
+++ b/StateMachineJikken/状態遷移図実験.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\StateMachineJikken\StateMachineJikken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26910" windowHeight="20790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26910" windowHeight="20790" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="状態遷移図" sheetId="1" r:id="rId1"/>
+    <sheet name="状態-イベントマトリクス" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -21,6 +22,168 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t>状態</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起動前</t>
+    <rPh sb="0" eb="3">
+      <t>キドウマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定常状態</t>
+    <rPh sb="0" eb="4">
+      <t>テイジョウジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常状態</t>
+    <rPh sb="0" eb="4">
+      <t>イジョウジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起動</t>
+    <rPh sb="0" eb="2">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右キー押下</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左キー押下</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常発生後10秒経過</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ハッセイゴ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ビョウケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・コンソールに「起動しました」と表示する
+→[定常状態]に遷移する</t>
+    <rPh sb="8" eb="10">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>テイジョウジョウタイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・コンソールに「異常発生！！」と表示する
+→[異常状態]に遷移する</t>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・なにもしない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・コンソールに「異常復旧！！！！」と表示する
+→[定常状態]に遷移する</t>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フッキュウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ありえないケース
+（この状態の時にこのイベントは来ない）
+（来たら異常なので、例外で落とす、デバッグでここに来ないことを確認する）</t>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42,15 +205,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -58,15 +239,250 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -167,16 +583,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -185,7 +601,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4562475" y="1743075"/>
+          <a:off x="5972175" y="1800225"/>
           <a:ext cx="1190625" cy="1190625"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -239,16 +655,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -257,7 +673,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8620125" y="1714500"/>
+          <a:off x="12477750" y="1819275"/>
           <a:ext cx="1190625" cy="1190625"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -320,8 +736,8 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -332,8 +748,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2324100" y="2333625"/>
-          <a:ext cx="2190750" cy="0"/>
+          <a:off x="1809750" y="2333625"/>
+          <a:ext cx="3981450" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -361,16 +777,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -379,8 +795,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5905500" y="2066925"/>
-          <a:ext cx="2581275" cy="0"/>
+          <a:off x="7315200" y="2124075"/>
+          <a:ext cx="4800600" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -408,16 +824,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -426,8 +842,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5915025" y="2552700"/>
-          <a:ext cx="2533650" cy="0"/>
+          <a:off x="7324725" y="2609850"/>
+          <a:ext cx="4752975" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -507,10 +923,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1161087" cy="275717"/>
     <xdr:sp macro="" textlink="">
@@ -520,7 +936,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5734050" y="1676400"/>
+          <a:off x="7143750" y="1733550"/>
           <a:ext cx="1161087" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -559,10 +975,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1161087" cy="459100"/>
     <xdr:sp macro="" textlink="">
@@ -572,7 +988,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7486650" y="2667000"/>
+          <a:off x="11353800" y="2714625"/>
           <a:ext cx="1161087" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -683,13 +1099,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -700,8 +1116,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="723900" y="419100"/>
-          <a:ext cx="10020300" cy="5248275"/>
+          <a:off x="219075" y="419100"/>
+          <a:ext cx="13944600" cy="5248275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -733,6 +1149,517 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1563248" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="1847850"/>
+          <a:ext cx="1563248" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・コンソールに</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　「起動しました」と表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1655903" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029700" y="1524000"/>
+          <a:ext cx="1655903" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・コンソールに</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　「異常発生！！」と表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1938031" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9105900" y="2714625"/>
+          <a:ext cx="1938031" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・コンソールに</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　「異常復旧！！！！」と表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="グループ化 24"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5204572" y="3736042"/>
+          <a:ext cx="2800350" cy="1642783"/>
+          <a:chOff x="5248275" y="4114801"/>
+          <a:chExt cx="2857500" cy="1676400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="4686300"/>
+            <a:ext cx="2333625" cy="1066800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>　　　　　：　状態</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>黒字　　：　イベント</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>赤字</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>　　：　遷移時の処理内容</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="22" name="グループ化 21"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5657851" y="4533901"/>
+            <a:ext cx="571500" cy="571500"/>
+            <a:chOff x="5629276" y="3971926"/>
+            <a:chExt cx="571500" cy="571500"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="円/楕円 19"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5629276" y="3971926"/>
+              <a:ext cx="571500" cy="571500"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5658222" y="4042373"/>
+              <a:ext cx="530915" cy="383246"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>*</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>状態名</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5248275" y="4114801"/>
+            <a:ext cx="2657475" cy="1676400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5343525" y="4152900"/>
+            <a:ext cx="607859" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng"/>
+              <a:t>■凡例</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1003,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="CE11" sqref="CE11"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BR15" sqref="BR15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1013,4 +1940,133 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="40.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="18"/>
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="18"/>
+      <c r="B6" s="17">
+        <v>2</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="19"/>
+      <c r="B7" s="17">
+        <v>3</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D9" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/StateMachineJikken/状態遷移図実験.xlsx
+++ b/StateMachineJikken/状態遷移図実験.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26910" windowHeight="20790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26910" windowHeight="20790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="状態遷移図" sheetId="1" r:id="rId1"/>
     <sheet name="状態-イベントマトリクス" sheetId="2" r:id="rId2"/>
+    <sheet name="クラス構成イメージ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>状態</t>
     <rPh sb="0" eb="2">
@@ -181,6 +182,50 @@
     <rPh sb="60" eb="62">
       <t>カクニン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StateMachine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BeforeStart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Idle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AbNormal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KeyWatcher</t>
+  </si>
+  <si>
+    <t>時間計測</t>
+    <rPh sb="0" eb="4">
+      <t>ジカンケイソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー入力監視</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Timer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(IState)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -205,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +275,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -414,7 +477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -483,6 +546,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1946,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2069,4 +2144,467 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="L5:AP19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AI28" sqref="AI28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="5" spans="12:42" x14ac:dyDescent="0.15">
+      <c r="L5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23"/>
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="23"/>
+      <c r="AL5" s="23"/>
+      <c r="AM5" s="23"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="23"/>
+    </row>
+    <row r="6" spans="12:42" x14ac:dyDescent="0.15">
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="23"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="23"/>
+    </row>
+    <row r="7" spans="12:42" x14ac:dyDescent="0.15">
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="23"/>
+      <c r="AO7" s="23"/>
+      <c r="AP7" s="23"/>
+    </row>
+    <row r="8" spans="12:42" x14ac:dyDescent="0.15">
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="25"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="25"/>
+      <c r="AM8" s="25"/>
+      <c r="AN8" s="23"/>
+      <c r="AO8" s="23"/>
+      <c r="AP8" s="23"/>
+    </row>
+    <row r="9" spans="12:42" x14ac:dyDescent="0.15">
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="25"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25"/>
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="23"/>
+      <c r="AO9" s="23"/>
+      <c r="AP9" s="23"/>
+    </row>
+    <row r="10" spans="12:42" x14ac:dyDescent="0.15">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="23"/>
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="23"/>
+      <c r="AL10" s="23"/>
+      <c r="AM10" s="23"/>
+      <c r="AN10" s="23"/>
+      <c r="AO10" s="23"/>
+      <c r="AP10" s="23"/>
+    </row>
+    <row r="11" spans="12:42" x14ac:dyDescent="0.15">
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="23"/>
+      <c r="AJ11" s="23"/>
+      <c r="AK11" s="23"/>
+      <c r="AL11" s="23"/>
+      <c r="AM11" s="23"/>
+      <c r="AN11" s="23"/>
+      <c r="AO11" s="23"/>
+      <c r="AP11" s="23"/>
+    </row>
+    <row r="12" spans="12:42" x14ac:dyDescent="0.15">
+      <c r="P12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AL12" s="26"/>
+    </row>
+    <row r="13" spans="12:42" x14ac:dyDescent="0.15">
+      <c r="L13" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="W13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AH13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="24"/>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="24"/>
+    </row>
+    <row r="14" spans="12:42" x14ac:dyDescent="0.15">
+      <c r="L14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="W14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AH14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="24"/>
+      <c r="AN14" s="24"/>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="24"/>
+    </row>
+    <row r="15" spans="12:42" x14ac:dyDescent="0.15">
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AH15" s="24"/>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="24"/>
+      <c r="AK15" s="24"/>
+      <c r="AL15" s="24"/>
+      <c r="AM15" s="24"/>
+      <c r="AN15" s="24"/>
+      <c r="AO15" s="24"/>
+      <c r="AP15" s="24"/>
+    </row>
+    <row r="16" spans="12:42" x14ac:dyDescent="0.15">
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AH16" s="24"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="24"/>
+      <c r="AK16" s="24"/>
+      <c r="AL16" s="24"/>
+      <c r="AM16" s="24"/>
+      <c r="AN16" s="24"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="24"/>
+    </row>
+    <row r="17" spans="12:42" x14ac:dyDescent="0.15">
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
+      <c r="AK17" s="24"/>
+      <c r="AL17" s="24"/>
+      <c r="AM17" s="24"/>
+      <c r="AN17" s="24"/>
+      <c r="AO17" s="24"/>
+      <c r="AP17" s="24"/>
+    </row>
+    <row r="18" spans="12:42" x14ac:dyDescent="0.15">
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AH18" s="24"/>
+      <c r="AI18" s="24"/>
+      <c r="AJ18" s="24"/>
+      <c r="AK18" s="24"/>
+      <c r="AL18" s="24"/>
+      <c r="AM18" s="24"/>
+      <c r="AN18" s="24"/>
+      <c r="AO18" s="24"/>
+      <c r="AP18" s="24"/>
+    </row>
+    <row r="19" spans="12:42" x14ac:dyDescent="0.15">
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AH19" s="24"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="24"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="24"/>
+      <c r="AO19" s="24"/>
+      <c r="AP19" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>